--- a/fuentes/contenidos/grado03/guion04/SolicitudGrafica_CN_03_04_CO.xlsx
+++ b/fuentes/contenidos/grado03/guion04/SolicitudGrafica_CN_03_04_CO.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="173">
   <si>
     <t>Fecha:</t>
   </si>
@@ -523,9 +523,6 @@
     <t>Vertical</t>
   </si>
   <si>
-    <t>Mano sosteniendo el mundo y sus recursos.</t>
-  </si>
-  <si>
     <t>Fotografía de un niño tomando agua de un vaso</t>
   </si>
   <si>
@@ -565,9 +562,6 @@
     <t>Imagen de un cultivo de arroz en Asia</t>
   </si>
   <si>
-    <t>Grupo de personas en labores de reforestación.</t>
-  </si>
-  <si>
     <t>Imagen de los llanos orientales de Colombia</t>
   </si>
   <si>
@@ -578,6 +572,21 @@
   </si>
   <si>
     <t>Mujer esquimal vestida con pieles</t>
+  </si>
+  <si>
+    <t>Ver Observaciones</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
+  </si>
+  <si>
+    <t>Gráfico del porcentaje de los gases que componen el aire</t>
+  </si>
+  <si>
+    <t>Mano sosteniendo el mundo y sus recursos</t>
+  </si>
+  <si>
+    <t>Grupo de personas en labores de reforestación</t>
   </si>
 </sst>
 </file>
@@ -605,11 +614,13 @@
     <font>
       <sz val="10"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -631,16 +642,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1713,6 +1727,49 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3423557</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2161653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17392650" y="3169103"/>
+          <a:ext cx="3347357" cy="2011975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -2328,9 +2385,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2345,7 +2402,7 @@
     <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="47" style="17" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
     <col min="14" max="16384" width="10.875" style="2"/>
@@ -2390,7 +2447,7 @@
       </c>
       <c r="D3" s="88"/>
       <c r="F3" s="80">
-        <v>42093</v>
+        <v>42104</v>
       </c>
       <c r="G3" s="81"/>
       <c r="H3" s="48"/>
@@ -2558,8 +2615,8 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J10" s="73" t="s">
-        <v>151</v>
+      <c r="J10" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -2598,7 +2655,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J11" s="74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K11" s="15"/>
     </row>
@@ -2618,7 +2675,7 @@
         <v>149</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2637,27 +2694,27 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J12" s="74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE(LEFT(A12,3),IF(MID(A12,4,2)+1&lt;10,CONCATENATE("0",MID(A12,4,2)+1))),"")</f>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="13">
-        <v>145558600</v>
+      <c r="B13" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="C13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2675,18 +2732,18 @@
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J13" s="74" t="s">
-        <v>155</v>
+      <c r="J13" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
       <c r="B14" s="13">
-        <v>40584751</v>
+        <v>145558600</v>
       </c>
       <c r="C14" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2696,7 +2753,7 @@
         <v>149</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2715,7 +2772,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="74" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K14" s="19"/>
     </row>
@@ -2725,7 +2782,7 @@
         <v>IMG06</v>
       </c>
       <c r="B15" s="13">
-        <v>155082974</v>
+        <v>40584751</v>
       </c>
       <c r="C15" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2735,7 +2792,7 @@
         <v>149</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2753,18 +2810,18 @@
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="75" t="s">
-        <v>157</v>
+      <c r="J15" s="74" t="s">
+        <v>155</v>
       </c>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
       <c r="B16" s="13">
-        <v>166674365</v>
+        <v>155082974</v>
       </c>
       <c r="C16" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2774,7 +2831,7 @@
         <v>149</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2792,18 +2849,18 @@
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="76" t="s">
-        <v>158</v>
+      <c r="J16" s="75" t="s">
+        <v>156</v>
       </c>
       <c r="K16" s="29"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
       </c>
       <c r="B17" s="13">
-        <v>190074470</v>
+        <v>166674365</v>
       </c>
       <c r="C17" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2831,18 +2888,18 @@
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="75" t="s">
-        <v>159</v>
+      <c r="J17" s="76" t="s">
+        <v>157</v>
       </c>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
       </c>
-      <c r="B18" s="77" t="s">
-        <v>160</v>
+      <c r="B18" s="13">
+        <v>190074470</v>
       </c>
       <c r="C18" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2852,7 +2909,7 @@
         <v>149</v>
       </c>
       <c r="E18" s="73" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F18" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2871,17 +2928,17 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J18" s="75" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
       </c>
-      <c r="B19" s="13">
-        <v>100183373</v>
+      <c r="B19" s="77" t="s">
+        <v>159</v>
       </c>
       <c r="C19" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2891,7 +2948,7 @@
         <v>149</v>
       </c>
       <c r="E19" s="73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F19" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2909,18 +2966,18 @@
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="76" t="s">
-        <v>162</v>
+      <c r="J19" s="75" t="s">
+        <v>160</v>
       </c>
       <c r="K19" s="29"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f t="shared" ref="A20:A83" si="4">IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE(LEFT(A19,3),IF(MID(A19,4,2)+1&lt;10,CONCATENATE("0",MID(A19,4,2)+1),MID(A19,4,2)+1)),"")</f>
         <v>IMG11</v>
       </c>
       <c r="B20" s="13">
-        <v>129155648</v>
+        <v>100183373</v>
       </c>
       <c r="C20" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2930,7 +2987,7 @@
         <v>149</v>
       </c>
       <c r="E20" s="73" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F20" s="14" t="str">
         <f t="shared" si="1"/>
@@ -2948,18 +3005,18 @@
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="74" t="s">
-        <v>163</v>
+      <c r="J20" s="76" t="s">
+        <v>161</v>
       </c>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f t="shared" si="4"/>
         <v>IMG12</v>
       </c>
       <c r="B21" s="13">
-        <v>129789821</v>
+        <v>129155648</v>
       </c>
       <c r="C21" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2987,18 +3044,18 @@
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="75" t="s">
-        <v>164</v>
+      <c r="J21" s="74" t="s">
+        <v>162</v>
       </c>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="str">
         <f t="shared" si="4"/>
         <v>IMG13</v>
       </c>
       <c r="B22" s="13">
-        <v>217946986</v>
+        <v>129789821</v>
       </c>
       <c r="C22" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3026,8 +3083,8 @@
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="73" t="s">
-        <v>165</v>
+      <c r="J22" s="75" t="s">
+        <v>163</v>
       </c>
       <c r="K22" s="20"/>
     </row>
@@ -3037,7 +3094,7 @@
         <v>IMG14</v>
       </c>
       <c r="B23" s="13">
-        <v>171233870</v>
+        <v>217946986</v>
       </c>
       <c r="C23" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3065,8 +3122,8 @@
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="74" t="s">
-        <v>166</v>
+      <c r="J23" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="K23" s="19"/>
     </row>
@@ -3076,7 +3133,7 @@
         <v>IMG15</v>
       </c>
       <c r="B24" s="13">
-        <v>214118173</v>
+        <v>171233870</v>
       </c>
       <c r="C24" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3086,7 +3143,7 @@
         <v>149</v>
       </c>
       <c r="E24" s="73" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F24" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3104,8 +3161,8 @@
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="73" t="s">
-        <v>167</v>
+      <c r="J24" s="74" t="s">
+        <v>164</v>
       </c>
       <c r="K24" s="15"/>
     </row>
@@ -3115,7 +3172,7 @@
         <v>IMG16</v>
       </c>
       <c r="B25" s="13">
-        <v>4811878</v>
+        <v>214118173</v>
       </c>
       <c r="C25" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3125,7 +3182,7 @@
         <v>149</v>
       </c>
       <c r="E25" s="73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F25" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3144,17 +3201,17 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J25" s="73" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="str">
         <f t="shared" si="4"/>
         <v>IMG17</v>
       </c>
       <c r="B26" s="13">
-        <v>145314475</v>
+        <v>4811878</v>
       </c>
       <c r="C26" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3164,7 +3221,7 @@
         <v>149</v>
       </c>
       <c r="E26" s="73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F26" s="14" t="str">
         <f t="shared" si="1"/>
@@ -3183,39 +3240,47 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J26" s="73" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B27" s="13"/>
+        <v>IMG18</v>
+      </c>
+      <c r="B27" s="13">
+        <v>145314475</v>
+      </c>
       <c r="C27" s="27" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="73" t="s">
+        <v>152</v>
+      </c>
       <c r="F27" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CN_03_04_CO_IMG18_small</v>
       </c>
       <c r="G27" s="14" t="str">
         <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H27" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CN_03_04_CO_IMG18_zoom</v>
       </c>
       <c r="I27" s="14" t="str">
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J27" s="19"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J27" s="73" t="s">
+        <v>167</v>
+      </c>
       <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5776,11 +5841,9 @@
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/fuentes/contenidos/grado03/guion04/SolicitudGrafica_CN_03_04_CO.xlsx
+++ b/fuentes/contenidos/grado03/guion04/SolicitudGrafica_CN_03_04_CO.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="8895" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="33760" windowHeight="19880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="176">
   <si>
     <t>Fecha:</t>
   </si>
@@ -588,6 +588,15 @@
   <si>
     <t>Grupo de personas en labores de reforestación</t>
   </si>
+  <si>
+    <t>CREDITO: https://www.flickr.com/photos/ginaparody/sets/72157626852886083</t>
+  </si>
+  <si>
+    <t>Uso editorial exclusivamente. CREDITO  &lt;a href="http://www.shutterstock.com/gallery-333667p1.html?cr=00&amp;pl=edit-00"&gt;Sura Nualpradid&lt;/a&gt; / &lt;a href="http://www.shutterstock.com/editorial?cr=00&amp;pl=edit-00"&gt;Shutterstock.com&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Uso editorial exclusivamente. CREDITO &lt;a href="http://www.shutterstock.com/gallery-245188p1.html?cr=00&amp;pl=edit-00"&gt;Rich Carey&lt;/a&gt; / &lt;a href="http://www.shutterstock.com/editorial?cr=00&amp;pl=edit-00"&gt;Shutterstock.com&lt;/a&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -596,7 +605,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -755,6 +764,16 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1007,11 +1026,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1020,7 +1039,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1028,17 +1047,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1048,7 +1067,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1056,12 +1075,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,18 +1089,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,11 +1130,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1125,10 +1144,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1138,7 +1157,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1212,16 +1231,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,28 +1248,28 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1303,8 +1322,116 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1593,8 +1720,14 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="160">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1646,6 +1779,114 @@
     <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1775,15 +2016,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:colOff>1041400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1816,15 +2057,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:colOff>1054100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1857,15 +2098,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1900,13 +2141,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1939,15 +2180,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
+          <xdr:colOff>825500</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1980,15 +2221,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2021,15 +2262,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2382,33 +2623,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
+    <col min="10" max="10" width="34.83203125" style="17" customWidth="1"/>
     <col min="11" max="11" width="47" style="17" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="2"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2420,7 +2661,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
@@ -2437,7 +2678,7 @@
       <c r="I2" s="48"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2454,7 +2695,7 @@
       <c r="I3" s="48"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
@@ -2475,7 +2716,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -2495,7 +2736,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2508,7 +2749,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="32" t="s">
         <v>40</v>
@@ -2526,7 +2767,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2546,7 +2787,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="26.25" thickBot="1">
       <c r="A9" s="28" t="s">
         <v>2</v>
       </c>
@@ -2581,7 +2822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="27">
       <c r="A10" s="13" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
@@ -2620,7 +2861,7 @@
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="28.5" customHeight="1">
       <c r="A11" s="13" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
@@ -2659,7 +2900,7 @@
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="27">
       <c r="A12" s="13" t="str">
         <f t="shared" ref="A12:A18" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
         <v>IMG03</v>
@@ -2698,7 +2939,7 @@
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="179.25" customHeight="1">
       <c r="A13" s="13" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE(LEFT(A12,3),IF(MID(A12,4,2)+1&lt;10,CONCATENATE("0",MID(A12,4,2)+1))),"")</f>
         <v>IMG04</v>
@@ -2737,7 +2978,7 @@
       </c>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A14" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
@@ -2776,7 +3017,7 @@
       </c>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="27">
       <c r="A15" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
@@ -2815,7 +3056,7 @@
       </c>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="27.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="27.75">
       <c r="A16" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
@@ -2854,7 +3095,7 @@
       </c>
       <c r="K16" s="29"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A17" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
@@ -2893,7 +3134,7 @@
       </c>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="27">
       <c r="A18" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
@@ -2932,7 +3173,7 @@
       </c>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="45">
       <c r="A19" s="13" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
@@ -2969,9 +3210,11 @@
       <c r="J19" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="29"/>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="109" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A20" s="13" t="str">
         <f t="shared" ref="A20:A83" si="4">IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE(LEFT(A19,3),IF(MID(A19,4,2)+1&lt;10,CONCATENATE("0",MID(A19,4,2)+1),MID(A19,4,2)+1)),"")</f>
         <v>IMG11</v>
@@ -3010,7 +3253,7 @@
       </c>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="27">
       <c r="A21" s="13" t="str">
         <f t="shared" si="4"/>
         <v>IMG12</v>
@@ -3049,7 +3292,7 @@
       </c>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A22" s="13" t="str">
         <f t="shared" si="4"/>
         <v>IMG13</v>
@@ -3088,7 +3331,7 @@
       </c>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="78">
       <c r="A23" s="13" t="str">
         <f t="shared" si="4"/>
         <v>IMG14</v>
@@ -3125,9 +3368,11 @@
       <c r="J23" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="K23" s="110" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="26">
       <c r="A24" s="13" t="str">
         <f t="shared" si="4"/>
         <v>IMG15</v>
@@ -3164,9 +3409,8 @@
       <c r="J24" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="65">
       <c r="A25" s="13" t="str">
         <f t="shared" si="4"/>
         <v>IMG16</v>
@@ -3203,9 +3447,11 @@
       <c r="J25" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="K25" s="110" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="26">
       <c r="A26" s="13" t="str">
         <f t="shared" si="4"/>
         <v>IMG17</v>
@@ -3244,7 +3490,7 @@
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A27" s="13" t="str">
         <f t="shared" si="4"/>
         <v>IMG18</v>
@@ -3283,7 +3529,7 @@
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A28" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3314,7 +3560,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A29" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3345,7 +3591,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A30" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3376,7 +3622,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A31" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3407,7 +3653,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A32" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3438,7 +3684,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A33" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3469,7 +3715,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A34" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3500,7 +3746,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A35" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3531,7 +3777,7 @@
       <c r="J35" s="14"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A36" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3562,7 +3808,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A37" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3593,7 +3839,7 @@
       <c r="J37" s="22"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A38" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3624,7 +3870,7 @@
       <c r="J38" s="23"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A39" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3655,7 +3901,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A40" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3686,7 +3932,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A41" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3717,7 +3963,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A42" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3748,7 +3994,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A43" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3779,7 +4025,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A44" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3810,7 +4056,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A45" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3841,7 +4087,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A46" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3872,7 +4118,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A47" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3903,7 +4149,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A48" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3934,7 +4180,7 @@
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A49" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3965,7 +4211,7 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A50" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3996,7 +4242,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A51" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4027,7 +4273,7 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A52" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4058,7 +4304,7 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A53" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4089,7 +4335,7 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A54" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4120,7 +4366,7 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A55" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4151,7 +4397,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A56" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4182,7 +4428,7 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A57" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4213,7 +4459,7 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A58" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4244,7 +4490,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A59" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4275,7 +4521,7 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A60" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4306,7 +4552,7 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A61" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4337,7 +4583,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A62" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4368,7 +4614,7 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A63" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4399,7 +4645,7 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A64" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4430,7 +4676,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A65" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4461,7 +4707,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A66" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4492,7 +4738,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A67" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4523,7 +4769,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A68" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4554,7 +4800,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A69" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4585,7 +4831,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A70" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4616,7 +4862,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A71" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4647,7 +4893,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A72" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4678,7 +4924,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A73" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4709,7 +4955,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A74" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4740,7 +4986,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A75" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4771,7 +5017,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A76" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4802,7 +5048,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A77" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4833,7 +5079,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A78" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4864,7 +5110,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A79" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4895,7 +5141,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A80" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4926,7 +5172,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A81" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4957,7 +5203,7 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A82" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4988,7 +5234,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A83" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5019,7 +5265,7 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A84" s="13" t="str">
         <f t="shared" ref="A84:A108" si="8">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
         <v/>
@@ -5050,7 +5296,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A85" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5081,7 +5327,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A86" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5112,7 +5358,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A87" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5143,7 +5389,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A88" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5174,7 +5420,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A89" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5205,7 +5451,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A90" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5236,7 +5482,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A91" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5267,7 +5513,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A92" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5298,7 +5544,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A93" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5329,7 +5575,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A94" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5360,7 +5606,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A95" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5391,7 +5637,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A96" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5422,7 +5668,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A97" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5453,7 +5699,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A98" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5484,7 +5730,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A99" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5515,7 +5761,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A100" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5546,7 +5792,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A101" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5577,7 +5823,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A102" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5608,7 +5854,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A103" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5639,7 +5885,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A104" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5670,7 +5916,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A105" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5701,7 +5947,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A106" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5732,7 +5978,7 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A107" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5763,7 +6009,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A108" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5842,8 +6088,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5854,25 +6100,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="30" customWidth="1"/>
-    <col min="2" max="2" width="11" style="30"/>
-    <col min="3" max="3" width="13.875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="30" customWidth="1"/>
-    <col min="5" max="7" width="11" style="30"/>
+    <col min="1" max="1" width="72.1640625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="30"/>
+    <col min="3" max="3" width="13.83203125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="30" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="30"/>
     <col min="8" max="11" width="11" style="30" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="30"/>
+    <col min="12" max="16384" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
       <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
@@ -5882,7 +6128,7 @@
       <c r="E1" s="94"/>
       <c r="F1" s="95"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="38" t="s">
         <v>42</v>
       </c>
@@ -5894,7 +6140,7 @@
       <c r="E2" s="98"/>
       <c r="F2" s="40"/>
     </row>
-    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="63">
       <c r="A3" s="41" t="s">
         <v>43</v>
       </c>
@@ -5918,7 +6164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="31.5">
       <c r="A4" s="38" t="s">
         <v>44</v>
       </c>
@@ -5946,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1">
       <c r="A5" s="41" t="s">
         <v>45</v>
       </c>
@@ -5973,7 +6219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1">
       <c r="A6" s="38" t="s">
         <v>10</v>
       </c>
@@ -5995,7 +6241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="48" thickBot="1">
       <c r="A7" s="41" t="s">
         <v>11</v>
       </c>
@@ -6022,7 +6268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="47.25">
       <c r="A8" s="41" t="s">
         <v>53</v>
       </c>
@@ -6041,7 +6287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="47.25">
       <c r="A9" s="41" t="s">
         <v>12</v>
       </c>
@@ -6060,7 +6306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1">
       <c r="A10" s="42" t="s">
         <v>36</v>
       </c>
@@ -6079,7 +6325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="I11" s="30" t="s">
         <v>32</v>
       </c>
@@ -6090,7 +6336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1">
       <c r="I12" s="30" t="s">
         <v>37</v>
       </c>
@@ -6101,7 +6347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="93" t="s">
         <v>41</v>
       </c>
@@ -6120,7 +6366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1">
       <c r="A14" s="41"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -6137,7 +6383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="38" t="s">
         <v>46</v>
       </c>
@@ -6155,7 +6401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="67.25" customHeight="1">
       <c r="A16" s="41" t="s">
         <v>47</v>
       </c>
@@ -6179,7 +6425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
       <c r="A17" s="38" t="s">
         <v>44</v>
       </c>
@@ -6200,7 +6446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1">
       <c r="A18" s="41" t="s">
         <v>48</v>
       </c>
@@ -6221,7 +6467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="38" t="s">
         <v>10</v>
       </c>
@@ -6240,7 +6486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1">
       <c r="A20" s="42" t="s">
         <v>51</v>
       </c>
@@ -6262,7 +6508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="H21" s="30" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6279,122 +6525,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="K22" s="30">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="K23" s="30">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="K24" s="30">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="K25" s="30">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="K26" s="30">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="K27" s="30">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="K28" s="30">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="K29" s="30">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="K30" s="30">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="K31" s="30">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="K32" s="30">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:11">
       <c r="K33" s="30">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:11">
       <c r="K34" s="30">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:11">
       <c r="K35" s="30">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:11">
       <c r="K36" s="30">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:11">
       <c r="K37" s="30">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:11">
       <c r="K38" s="30">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:11">
       <c r="K39" s="30">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:11">
       <c r="K40" s="30">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:11">
       <c r="K41" s="30">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:11">
       <c r="K42" s="30">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:11">
       <c r="K43" s="30">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:11">
       <c r="K44" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:11">
       <c r="K45" s="30" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6413,169 +6659,182 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+            <control shapeId="1030" r:id="rId3" name="Drop Down 6">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+            <control shapeId="1031" r:id="rId4" name="Drop Down 7">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>828675</xdr:colOff>
+                    <xdr:colOff>825500</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+            <control shapeId="1032" r:id="rId5" name="Drop Down 8">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+            <control shapeId="1035" r:id="rId6" name="Drop Down 11">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+            <control shapeId="1026" r:id="rId7" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:colOff>1041400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+            <control shapeId="1028" r:id="rId8" name="Drop Down 4">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:colOff>1054100</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+            <control shapeId="1029" r:id="rId9" name="Drop Down 5">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6588,23 +6847,23 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="30" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="30" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="30"/>
-    <col min="5" max="5" width="11.75" style="30" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="30" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="30"/>
+    <col min="5" max="5" width="11.6640625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="30" customWidth="1"/>
     <col min="7" max="7" width="11" style="30" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="30" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="30" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="30" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="30" customWidth="1"/>
     <col min="11" max="11" width="44.5" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="30"/>
+    <col min="12" max="16384" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="107" t="s">
         <v>56</v>
       </c>
@@ -6632,7 +6891,7 @@
       <c r="I1" s="108"/>
       <c r="J1" s="108"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="107"/>
       <c r="B2" s="107"/>
       <c r="C2" s="107"/>
@@ -6650,7 +6909,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="51" customFormat="1">
       <c r="A3" s="50" t="s">
         <v>69</v>
       </c>
@@ -6674,7 +6933,7 @@
       <c r="I3" s="50"/>
       <c r="J3" s="50"/>
     </row>
-    <row r="4" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="51" customFormat="1">
       <c r="A4" s="52" t="s">
         <v>57</v>
       </c>
@@ -6702,7 +6961,7 @@
       </c>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="51" customFormat="1">
       <c r="A5" s="53" t="s">
         <v>77</v>
       </c>
@@ -6730,7 +6989,7 @@
       </c>
       <c r="J5" s="54"/>
     </row>
-    <row r="6" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="51" customFormat="1">
       <c r="A6" s="52" t="s">
         <v>58</v>
       </c>
@@ -6762,7 +7021,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="51" customFormat="1" ht="25.5">
       <c r="A7" s="52" t="s">
         <v>80</v>
       </c>
@@ -6790,7 +7049,7 @@
       </c>
       <c r="J7" s="52"/>
     </row>
-    <row r="8" spans="1:11" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="51" customFormat="1" ht="25.5">
       <c r="A8" s="52" t="s">
         <v>82</v>
       </c>
@@ -6818,7 +7077,7 @@
       </c>
       <c r="J8" s="52"/>
     </row>
-    <row r="9" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="51" customFormat="1">
       <c r="A9" s="52" t="s">
         <v>84</v>
       </c>
@@ -6846,7 +7105,7 @@
       </c>
       <c r="J9" s="52"/>
     </row>
-    <row r="10" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="51" customFormat="1">
       <c r="A10" s="52" t="s">
         <v>86</v>
       </c>
@@ -6872,7 +7131,7 @@
       </c>
       <c r="J10" s="52"/>
     </row>
-    <row r="11" spans="1:11" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="51" customFormat="1" ht="25.5">
       <c r="A11" s="52" t="s">
         <v>89</v>
       </c>
@@ -6900,7 +7159,7 @@
       </c>
       <c r="J11" s="52"/>
     </row>
-    <row r="12" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="51" customFormat="1">
       <c r="A12" s="52" t="s">
         <v>91</v>
       </c>
@@ -6928,7 +7187,7 @@
       </c>
       <c r="J12" s="52"/>
     </row>
-    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="63">
       <c r="A13" s="55" t="s">
         <v>93</v>
       </c>
@@ -6955,7 +7214,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="55" t="s">
         <v>97</v>
       </c>
@@ -6979,7 +7238,7 @@
       </c>
       <c r="J14" s="55"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="31.5">
       <c r="A15" s="55" t="s">
         <v>99</v>
       </c>
@@ -7006,7 +7265,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="94.5">
       <c r="A16" s="57" t="s">
         <v>103</v>
       </c>
@@ -7035,7 +7294,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="25.5">
       <c r="A17" s="52" t="s">
         <v>106</v>
       </c>
@@ -7064,12 +7323,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="61" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="62" t="s">
         <v>113</v>
       </c>
@@ -7082,7 +7341,7 @@
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="65" t="s">
         <v>114</v>
       </c>
@@ -7095,7 +7354,7 @@
       <c r="D22" s="66"/>
       <c r="E22" s="66"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="65" t="s">
         <v>115</v>
       </c>
@@ -7108,7 +7367,7 @@
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="31.5">
       <c r="A24" s="65" t="s">
         <v>116</v>
       </c>
@@ -7121,7 +7380,7 @@
       <c r="D24" s="66"/>
       <c r="E24" s="66"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="65" t="s">
         <v>117</v>
       </c>
@@ -7134,7 +7393,7 @@
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
     </row>
-    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="63">
       <c r="A26" s="65" t="s">
         <v>118</v>
       </c>
@@ -7160,5 +7419,10 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>